--- a/hcw commands.xlsx
+++ b/hcw commands.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194e8d034589e5e8/_Boulot/How-To Procedures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194e8d034589e5e8/_Boulot/Documents/GitHub Repositories/Hybrid-Config-Wiz-Checks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="8_{747244AE-579D-4C1D-A8F7-FBCF549DE53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0084C06-DB0A-45AB-93DF-2D5CFB663868}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="8_{747244AE-579D-4C1D-A8F7-FBCF549DE53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0887D11B-FBD4-40FE-8028-16C34CB4283A}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="270" xr2:uid="{71ECBE9E-C00A-4113-ACDA-5A2EAAD5E365}"/>
   </bookViews>
@@ -2507,16 +2507,29 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{54F1B891-E192-4CFB-B5BC-718FC9355E10}" name="Table1" displayName="Table1" ref="A1:G195" totalsRowShown="0">
-  <autoFilter ref="A1:G195" xr:uid="{54F1B891-E192-4CFB-B5BC-718FC9355E10}">
+  <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A1:G195" xr:uid="{54F1B891-E192-4CFB-B5BC-718FC9355E10}">
     <filterColumn colId="5">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
     <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+      <filters>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <x14:filter val="Get-ExchangeCertificate -Server 'E2016-01'"/>
+            <x14:filter val="Get-ExchangeCertificate -Thumbprint CE5BE91C660D6E6213B95BEC6F84B045A431FC0C"/>
+            <x14:filter val="New-InboundConnector -Name 'Inbound from a3e87a2d-b84e-43cb-bf18-59aac4c4f1e5' -CloudServicesMailEnabled: $true -ConnectorSource HybridWizard -ConnectorType OnPremises -RequireTLS: $true -SenderDomains '*' -SenderIPAddresses $null -RestrictDomainsToIPAddresses: $false -TLSSenderCertificateName 'mail.canadasam.ca' -AssociatedAcceptedDomains $null"/>
+            <x14:filter val="New-SendConnector -Name 'Outbound to Office 365 - 177cd94d-be11-44e9-b09f-db69389f3a35' -AddressSpaces 'smtp:canadadrey.mail.onmicrosoft.com;1' -DNSRoutingEnabled: $true -ErrorPolicies Default -Fqdn 'mail.canadasam.ca' -RequireTLS: $true -IgnoreSTARTTLS: $false -SourceTransportServers 'E2016-01' -SmartHosts $null -TLSAuthLevel DomainValidation -DomainSecureEnabled: $false -TLSDomain 'mail.protection.outlook.com' -CloudServicesMailEnabled: $true -TLSCertificateName '&lt;I&gt;CN=GeoTrust TLS DV RSA Mixed SHA256 2020 CA-1, O=DigiCert Inc, C=US&lt;S&gt;CN=mail.canadasam.ca'"/>
+            <x14:filter val="Set-HybridConfiguration -ClientAccessServers $null -ExternalIPAddresses $null -Domains 'CanadaDrey.ca' -OnPremisesSmartHost 'mail.canadasam.ca' -TLSCertificateName '&lt;I&gt;CN=GeoTrust TLS DV RSA Mixed SHA256 2020 CA-1, O=DigiCert Inc, C=US&lt;S&gt;CN=mail.canadasam.ca' -SendingTransportServers 'E2016-01' -ReceivingTransportServers 'E2016-01' -EdgeTransportServers $null -Features FreeBusy,MoveMailbox,Mailtips,MessageTracking,OwaRedirection,OnlineArchive,SecureMail,Photos"/>
+            <x14:filter val="Set-ReceiveConnector -AuthMechanism 'Tls, Integrated, BasicAuth, BasicAuthRequireTLS, ExchangeServer' -Bindings '[::]:25','0.0.0.0:25' -Fqdn 'E2016-01.CanadaDrey.ca' -PermissionGroups 'AnonymousUsers, ExchangeServers, ExchangeLegacyServers' -RemoteIPRanges '::-ffff:ffff:ffff:ffff:ffff:ffff:ffff:ffff','0.0.0.0-255.255.255.255' -RequireTLS: $false -TLSDomainCapabilities 'mail.protection.outlook.com:AcceptCloudServicesMail' -TLSCertificateName '&lt;I&gt;CN=GeoTrust TLS DV RSA Mixed SHA256 2020 CA-1, O=DigiCert Inc, C=US&lt;S&gt;CN=mail.canadasam.ca' -TransportRole FrontendTransport -Identity 'E2016-01\Default Frontend E2016-01'"/>
+          </mc:Choice>
+          <mc:Fallback>
+            <filter val="Get-ExchangeCertificate -Server 'E2016-01'"/>
+            <filter val="Get-ExchangeCertificate -Thumbprint CE5BE91C660D6E6213B95BEC6F84B045A431FC0C"/>
+          </mc:Fallback>
+        </mc:AlternateContent>
+      </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="7">
@@ -2534,11 +2547,21 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DDECA1F2-06D1-49D9-B235-75968F2FCA69}" name="Table2" displayName="Table2" ref="A1:I133" totalsRowShown="0">
-  <autoFilter ref="A1:I133" xr:uid="{DDECA1F2-06D1-49D9-B235-75968F2FCA69}">
+  <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A1:I133" xr:uid="{DDECA1F2-06D1-49D9-B235-75968F2FCA69}">
     <filterColumn colId="8">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+      <filters>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <x14:filter val="Get-ExchangeCertificate -Server 'E2016-01'"/>
+            <x14:filter val="Get-ExchangeCertificate -Thumbprint CE5BE91C660D6E6213B95BEC6F84B045A431FC0C"/>
+            <x14:filter val="Set-HybridConfiguration -ClientAccessServers $null -ExternalIPAddresses $null -Domains 'CanadaDrey.ca' -OnPremisesSmartHost 'mail.canadadrey.ca' -TLSCertificateName '&lt;I&gt;CN=GeoTrust TLS DV RSA Mixed SHA256 2020 CA-1, O=DigiCert Inc, C=US&lt;S&gt;CN=mail.canadadrey.ca' -SendingTransportServers 'E2016-01' -ReceivingTransportServers 'E2016-01' -EdgeTransportServers $null -Features FreeBusy,MoveMailbox,Mailtips,MessageTracking,OwaRedirection,OnlineArchive,SecureMail,Photos"/>
+          </mc:Choice>
+          <mc:Fallback>
+            <filter val="Get-ExchangeCertificate -Server 'E2016-01'"/>
+            <filter val="Get-ExchangeCertificate -Thumbprint CE5BE91C660D6E6213B95BEC6F84B045A431FC0C"/>
+          </mc:Fallback>
+        </mc:AlternateContent>
+      </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="9">
@@ -2855,8 +2878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613E18EB-205E-49EB-AD6E-34436DB2BEB0}">
   <dimension ref="A1:G195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G184" sqref="G184"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G197" sqref="G197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2967,7 +2990,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -3124,7 +3147,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -3204,7 +3227,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -3491,7 +3514,7 @@
       <c r="F32" t="s">
         <v>768</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>772</v>
       </c>
     </row>
@@ -3666,7 +3689,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -3685,7 +3708,7 @@
       <c r="F42" t="s">
         <v>768</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="1" t="s">
         <v>441</v>
       </c>
     </row>
@@ -3783,7 +3806,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -3934,7 +3957,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>159</v>
       </c>
@@ -3974,7 +3997,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>163</v>
       </c>
@@ -4017,7 +4040,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>167</v>
       </c>
@@ -4057,7 +4080,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>171</v>
       </c>
@@ -4100,7 +4123,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>175</v>
       </c>
@@ -4140,7 +4163,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>179</v>
       </c>
@@ -4183,7 +4206,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>183</v>
       </c>
@@ -4454,7 +4477,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>211</v>
       </c>
@@ -4494,7 +4517,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>215</v>
       </c>
@@ -4608,7 +4631,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>227</v>
       </c>
@@ -4648,7 +4671,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>231</v>
       </c>
@@ -4691,7 +4714,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>235</v>
       </c>
@@ -4774,7 +4797,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>243</v>
       </c>
@@ -4907,7 +4930,7 @@
       <c r="F104" t="s">
         <v>768</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="1" t="s">
         <v>772</v>
       </c>
     </row>
@@ -5005,7 +5028,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>267</v>
       </c>
@@ -5202,7 +5225,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>287</v>
       </c>
@@ -5264,7 +5287,7 @@
       <c r="F122" t="s">
         <v>768</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="1" t="s">
         <v>793</v>
       </c>
     </row>
@@ -5285,7 +5308,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>295</v>
       </c>
@@ -5304,7 +5327,7 @@
       <c r="F124" t="s">
         <v>768</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="1" t="s">
         <v>448</v>
       </c>
     </row>
@@ -5347,7 +5370,7 @@
       <c r="F126" t="s">
         <v>768</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="1" t="s">
         <v>794</v>
       </c>
     </row>
@@ -5368,7 +5391,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>303</v>
       </c>
@@ -5408,7 +5431,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>307</v>
       </c>
@@ -5485,7 +5508,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>315</v>
       </c>
@@ -5710,7 +5733,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>339</v>
       </c>
@@ -5830,7 +5853,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>351</v>
       </c>
@@ -5870,7 +5893,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>355</v>
       </c>
@@ -5966,7 +5989,7 @@
       <c r="F158" t="s">
         <v>768</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="1" t="s">
         <v>778</v>
       </c>
     </row>
@@ -5990,7 +6013,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>367</v>
       </c>
@@ -6030,7 +6053,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>371</v>
       </c>
@@ -6070,7 +6093,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>375</v>
       </c>
@@ -6190,7 +6213,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>387</v>
       </c>
@@ -6304,7 +6327,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>399</v>
       </c>
@@ -6344,7 +6367,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>403</v>
       </c>
@@ -6458,7 +6481,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>415</v>
       </c>
@@ -6498,7 +6521,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>419</v>
       </c>
@@ -6538,7 +6561,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>423</v>
       </c>
@@ -6655,7 +6678,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>435</v>
       </c>
@@ -6711,8 +6734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8075E7-0783-4A6E-BAB3-677FBF137A9C}">
   <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6855,7 +6878,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>463</v>
       </c>
@@ -7057,7 +7080,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>480</v>
       </c>
@@ -7161,7 +7184,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>489</v>
       </c>
@@ -7865,7 +7888,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>552</v>
       </c>
@@ -8211,7 +8234,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>580</v>
       </c>
@@ -8263,7 +8286,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>584</v>
       </c>
@@ -8618,7 +8641,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>614</v>
       </c>
@@ -8915,7 +8938,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>638</v>
       </c>
@@ -9169,7 +9192,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>659</v>
       </c>
@@ -9221,7 +9244,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>663</v>
       </c>
@@ -9273,7 +9296,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>667</v>
       </c>
@@ -9573,7 +9596,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>692</v>
       </c>
@@ -9772,7 +9795,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>707</v>
       </c>
@@ -9824,7 +9847,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>711</v>
       </c>
@@ -9876,7 +9899,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>716</v>
       </c>
@@ -10026,7 +10049,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>728</v>
       </c>
